--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -6291,7 +6291,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Centro de Residuos Orgánicos Colhue S.A.</t>
+          <t>Waste To Energy SpA</t>
         </is>
       </c>
       <c r="F124" t="n">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -8451,7 +8451,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -6483,7 +6483,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Ines</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Santa Ines SpA</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151796407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Malloa Solar</t>
+          <t>Parque Fotovoltaico Santa Ines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Malloa Solar SpA</t>
+          <t>Santa Ines SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151791538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151796407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151528745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151791538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Solar Pelequén</t>
+          <t>Parque Fotovoltaico Malloa Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SONNEDIX PELEQUEN SOLAR SPA</t>
+          <t>Malloa Solar SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151415834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151528745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Mirlo</t>
+          <t>Parque Solar Pelequén</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PFV EL MIRLO SPA</t>
+          <t>SONNEDIX PELEQUEN SOLAR SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>140000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146362565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151415834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Parque Fotovoltaico El Mirlo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>PFV EL MIRLO SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146362565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>92000</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1200</v>
+        <v>92000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>600</v>
+        <v>2475</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>25/02/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>25/02/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2267,21 +2267,21 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>15000</v>
+        <v>240</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>240</v>
+        <v>706</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>706</v>
+        <v>240</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Concesión Ruta 66 - Camino de La Fruta</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>400500</v>
+        <v>100</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Concesión Ruta 66 - Camino de La Fruta</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>400500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1650</v>
+        <v>319</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,21 +3035,21 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>REGULARIZACION PLANTA DE TRATAMIENTO DE RILES</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Agrofoods Central Valley Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/07/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>REGULARIZACION PLANTA DE TRATAMIENTO DE RILES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Agrofoods Central Valley Chile S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>04/07/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5771736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cambio de Conductor y Mantención General para Operación en 220 kV de Línea de Transmisión Eléctrica Tinguiririca- Punta de Cortes Mantención y Cambio de Conductor LTEAT 220 kV</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Cambio de Conductor y Mantención General para Operación en 220 kV de Línea de Transmisión Eléctrica Tinguiririca- Punta de Cortes Mantención y Cambio de Conductor LTEAT 220 kV</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>12/04/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5504047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,12 +3400,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>130000</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>10/03/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,12 +3448,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>130000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES, AGROFOODS CENTRAL VALLEY CHILE S.A.</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Agrofoods Central Valley Chile S.A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/11/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5045648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES, AGROFOODS CENTRAL VALLEY CHILE S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Agrofoods Central Valley Chile S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>264</v>
+        <v>2000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>02/11/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5045648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1750</v>
+        <v>264</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Construcción Puente El Tambo, Comunas San Vicente de tagua Tagua y Malooa, VI Región" (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>17/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4041113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>"Construcción Puente El Tambo, Comunas San Vicente de tagua Tagua y Malooa, VI Región" (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>17/09/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4041113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mono Relleno para Lodos No Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Agrocomercial Esmeralda Ltda.</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03/07/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3845137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGULADOR COMUNAL DE MALLOA. LOCALIDADES DE MALLOA Y PELEQUEN (e-seia)</t>
+          <t>Mono Relleno para Lodos No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Malloa Ilustre Municipalidad de Malloa Ilustre Municipalidad de Malloa</t>
+          <t>Agrocomercial Esmeralda Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/06/2009</t>
+          <t>03/07/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3843659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3845137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGULADOR COMUNAL DE MALLOA. LOCALIDADES DE MALLOA Y PELEQUEN (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Ilustre Municipalidad de Malloa Ilustre Municipalidad de Malloa Ilustre Municipalidad de Malloa</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/06/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3843659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,10 +4792,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -4803,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>300000</v>
+        <v>22</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,14 +4840,10 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4907,17 +4907,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5003,17 +5003,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,25 +5043,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,25 +5091,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,25 +5139,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,25 +5235,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,25 +5427,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,25 +5475,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Viña y Cava Valle Secreto (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,30 +5710,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Viña y Cava Valle Secreto S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>16/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Matadero y Frigorífico Malloa, VI Región Frigo Malloa (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Viña y Cava Valle Secreto (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Matadero y Frigorifico Malloa Ltda.</t>
+          <t>Viña y Cava Valle Secreto S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/04/2008</t>
+          <t>16/05/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2879844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2697980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5819,17 +5819,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/04/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2354761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2879844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR INTERCOMUNAL RIO CLARO (e-seia)</t>
+          <t>Planta de Tratamiento de Riles Matadero y Frigorífico Malloa, VI Región Frigo Malloa (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Matadero y Frigorifico Malloa Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2769447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2354761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PLAN REGULADOR INTERCOMUNAL RIO CLARO (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,30 +5902,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2769447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,25 +6099,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Lodos, La Rinconada (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Agrocomercial Esmeralda Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1000</v>
+        <v>234</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2384880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Disposición Final de Lodos, La Rinconada (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Agrocomercial Esmeralda Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2384880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,25 +6243,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Organicos (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,20 +6286,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Waste To Energy SpA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Centro de Manejo de Residuos Organicos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Waste To Energy SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SUBESTACIÓN DE PODER 220-154/66/15 kV MALLOA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,30 +6478,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>13713</v>
+        <v>300</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1971489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SUBESTACIÓN DE PODER 220-154/66/15 kV MALLOA (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,30 +6526,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>13713</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1971489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,17 +6587,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Subestación de Poder 220-154/66/15 kV Malloa (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,20 +6622,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSNET S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>13713</v>
+        <v>200</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1868742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Subestación de Poder 220-154/66/15 kV Malloa (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSNET S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>13713</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>13/12/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1868742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6731,17 +6731,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Matadero y Frigorifico Malloa, VI Region. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Matadero y Frigorifico Malloa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>21/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1805113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Planta de Tratamiento de Riles Matadero y Frigorifico Malloa, VI Region. (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Matadero y Frigorifico Malloa Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>21/11/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1805113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Agrofoods Central Valley Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1775729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Planta de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,30 +6910,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Agrofoods Central Valley Chile S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>31/10/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1775729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,20 +6958,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Guillermo Martínez Medina</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Planta de Tratamiento de Riles (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,16 +7006,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Guillermo Martínez Medina</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1714560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,15 +7107,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,25 +7251,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,25 +7299,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,17 +7355,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,25 +7395,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,15 +7539,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,15 +7587,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,15 +7635,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7691,17 +7691,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,12 +7812,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Transporte Almacenamiento y Utilización de Petróleo Diesel por la Central Termoeléctrica Candelaria como Combustible Alternativo a Gas</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,12 +7860,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Proyecto Transporte Almacenamiento y Utilización de Petróleo Diesel por la Central Termoeléctrica Candelaria como Combustible Alternativo a Gas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>12/08/2004</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,20 +7918,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,20 +7966,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,15 +8019,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,15 +8067,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,25 +8115,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Planta Elevadora de Aguas Servidas Malloa Impulsión Malloa - Pelequén Planta Elevadora de Aguas Servidas Pelequén Impulsión Pelequén - Rengo y Planta Elevadora de Aguas Servidas Sector el Puerto de Malloa</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,30 +8158,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1570</v>
+        <v>200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21/07/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
+          <t>Planta Elevadora de Aguas Servidas Malloa Impulsión Malloa - Pelequén Planta Elevadora de Aguas Servidas Pelequén Impulsión Pelequén - Rengo y Planta Elevadora de Aguas Servidas Sector el Puerto de Malloa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,20 +8206,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>700</v>
+        <v>1570</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>30/05/2000</t>
+          <t>21/07/2000</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>30/05/2000</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral del Sistema de Agua Potable de Pelequén</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,20 +8302,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de El Libertador S.A., ESSEL S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>800</v>
+        <v>110</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Líquidos Industriales Viña Morandé</t>
+          <t>Mejoramiento Integral del Sistema de Agua Potable de Pelequén</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Viña Morande S.A.</t>
+          <t>Empresa de Servicios Sanitarios de El Libertador S.A., ESSEL S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>130</v>
+        <v>800</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/06/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Planta de Tratamiento de Residuos Líquidos Industriales Viña Morandé</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,20 +8398,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Viña Morande S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2500</v>
+        <v>130</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>28/06/1999</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmision 66 kv Malloa - Quinta de Tilcoco y Subestación Transformadora 66/15 KV Quinta de Tilcoco</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,20 +8446,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1740</v>
+        <v>2500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/10/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
+          <t>Proyecto Línea de Transmision 66 kv Malloa - Quinta de Tilcoco y Subestación Transformadora 66/15 KV Quinta de Tilcoco</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,20 +8494,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>11000</v>
+        <v>1740</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>02/10/1998</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,43 +8628,91 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>25/03/1998</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Malloa</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F173" t="n">
+      <c r="F174" t="n">
         <v>850000</v>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="I174" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>Malloa</t>
         </is>

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F61" t="n">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">

--- a/data/Malloa.xlsx
+++ b/data/Malloa.xlsx
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
